--- a/Dataset/19/수리남_학습 (19)/수리남4.xlsx
+++ b/Dataset/19/수리남_학습 (19)/수리남4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\OneDrive - 부산광역시교육청\문서\_3학년 1학기\AI 실무 프로젝트\수리남_학습 (19)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\19\수리남_학습 (19)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1251B1-0FAA-4175-AB9A-582F606BB2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F6723-395F-491D-A887-1161AE384F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4559,7 +4559,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4864,19 +4864,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D759"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="D760" sqref="D760"/>
+      <selection activeCell="R627" sqref="R627"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4960,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4974,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5100,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5114,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5170,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5212,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -5240,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5282,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5380,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5394,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -5408,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5422,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -5492,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -5520,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -5660,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -5702,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -5758,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -5842,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -5912,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -5940,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -5954,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -5968,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>156</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -5996,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -6038,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -6066,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -6108,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -6122,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -6136,7 +6135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -6150,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -6178,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -6192,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -6206,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -6220,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -6304,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -6388,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -6402,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -6472,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -6500,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -6528,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -6542,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -6556,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -6682,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -6696,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -6724,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -6752,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -6780,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -6822,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>281</v>
       </c>
@@ -6864,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>283</v>
       </c>
@@ -6878,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>285</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>287</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>289</v>
       </c>
@@ -6920,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>291</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>293</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>295</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>297</v>
       </c>
@@ -6976,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>299</v>
       </c>
@@ -6990,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>301</v>
       </c>
@@ -7004,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>303</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>305</v>
       </c>
@@ -7032,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>307</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>309</v>
       </c>
@@ -7060,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>311</v>
       </c>
@@ -7074,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>313</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>315</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>317</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>319</v>
       </c>
@@ -7130,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>321</v>
       </c>
@@ -7144,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>323</v>
       </c>
@@ -7158,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>325</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>327</v>
       </c>
@@ -7186,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>329</v>
       </c>
@@ -7200,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>331</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>333</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>335</v>
       </c>
@@ -7242,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>337</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>339</v>
       </c>
@@ -7270,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>341</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>343</v>
       </c>
@@ -7298,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>345</v>
       </c>
@@ -7312,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>347</v>
       </c>
@@ -7326,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>349</v>
       </c>
@@ -7340,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>351</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>353</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>355</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>357</v>
       </c>
@@ -7396,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>359</v>
       </c>
@@ -7410,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>361</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>363</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>365</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>367</v>
       </c>
@@ -7466,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>368</v>
       </c>
@@ -7480,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -7494,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -7508,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>374</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -7550,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -7564,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -7578,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -7606,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -7634,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -7648,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -7662,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -7676,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -7690,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -7760,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -7788,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -7802,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -7844,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -7900,7 +7899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -7928,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -7942,7 +7941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -7970,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -7998,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>443</v>
       </c>
@@ -8012,7 +8011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>445</v>
       </c>
@@ -8026,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>447</v>
       </c>
@@ -8040,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>449</v>
       </c>
@@ -8054,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>451</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>453</v>
       </c>
@@ -8082,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>455</v>
       </c>
@@ -8096,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>457</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>459</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>461</v>
       </c>
@@ -8138,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>463</v>
       </c>
@@ -8152,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>464</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>466</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>468</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>470</v>
       </c>
@@ -8208,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>472</v>
       </c>
@@ -8222,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>474</v>
       </c>
@@ -8236,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>476</v>
       </c>
@@ -8250,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>478</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>480</v>
       </c>
@@ -8278,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>482</v>
       </c>
@@ -8292,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>483</v>
       </c>
@@ -8306,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>485</v>
       </c>
@@ -8320,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>487</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>489</v>
       </c>
@@ -8348,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>491</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>493</v>
       </c>
@@ -8376,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>495</v>
       </c>
@@ -8390,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>496</v>
       </c>
@@ -8404,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>498</v>
       </c>
@@ -8418,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>500</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>502</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>504</v>
       </c>
@@ -8460,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>506</v>
       </c>
@@ -8474,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>508</v>
       </c>
@@ -8488,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>510</v>
       </c>
@@ -8502,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>512</v>
       </c>
@@ -8516,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>514</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>516</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>518</v>
       </c>
@@ -8558,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>520</v>
       </c>
@@ -8572,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>522</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>524</v>
       </c>
@@ -8600,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>526</v>
       </c>
@@ -8614,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>528</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>530</v>
       </c>
@@ -8642,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>532</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>534</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>536</v>
       </c>
@@ -8684,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>538</v>
       </c>
@@ -8698,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>540</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>542</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>544</v>
       </c>
@@ -8740,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>546</v>
       </c>
@@ -8754,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>548</v>
       </c>
@@ -8768,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>550</v>
       </c>
@@ -8782,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>552</v>
       </c>
@@ -8796,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>554</v>
       </c>
@@ -8810,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>556</v>
       </c>
@@ -8824,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>558</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>560</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>562</v>
       </c>
@@ -8866,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>564</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>566</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>567</v>
       </c>
@@ -8908,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>569</v>
       </c>
@@ -8922,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>571</v>
       </c>
@@ -8936,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>573</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>575</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>577</v>
       </c>
@@ -8978,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>579</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>581</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>583</v>
       </c>
@@ -9020,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>585</v>
       </c>
@@ -9034,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>587</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>589</v>
       </c>
@@ -9062,7 +9061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>591</v>
       </c>
@@ -9076,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>593</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>595</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>596</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>598</v>
       </c>
@@ -9132,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>600</v>
       </c>
@@ -9146,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>602</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>604</v>
       </c>
@@ -9174,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>606</v>
       </c>
@@ -9188,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>608</v>
       </c>
@@ -9202,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>610</v>
       </c>
@@ -9216,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>612</v>
       </c>
@@ -9230,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>614</v>
       </c>
@@ -9244,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>616</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>618</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>620</v>
       </c>
@@ -9286,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>622</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>624</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>626</v>
       </c>
@@ -9328,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>627</v>
       </c>
@@ -9342,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>629</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>631</v>
       </c>
@@ -9370,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>633</v>
       </c>
@@ -9384,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>635</v>
       </c>
@@ -9398,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>637</v>
       </c>
@@ -9412,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>639</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>641</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>643</v>
       </c>
@@ -9454,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>645</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>647</v>
       </c>
@@ -9482,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>649</v>
       </c>
@@ -9496,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>651</v>
       </c>
@@ -9510,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>653</v>
       </c>
@@ -9524,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>655</v>
       </c>
@@ -9538,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>657</v>
       </c>
@@ -9552,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>659</v>
       </c>
@@ -9566,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>661</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>663</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>665</v>
       </c>
@@ -9608,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>667</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>669</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>671</v>
       </c>
@@ -9650,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>673</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>675</v>
       </c>
@@ -9678,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>677</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>679</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>681</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>683</v>
       </c>
@@ -9734,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>685</v>
       </c>
@@ -9748,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>687</v>
       </c>
@@ -9762,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>689</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>691</v>
       </c>
@@ -9790,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>693</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>695</v>
       </c>
@@ -9818,7 +9817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>697</v>
       </c>
@@ -9832,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>699</v>
       </c>
@@ -9846,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>701</v>
       </c>
@@ -9860,7 +9859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>703</v>
       </c>
@@ -9874,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>705</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>707</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>709</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>711</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>713</v>
       </c>
@@ -9944,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>714</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>716</v>
       </c>
@@ -9972,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>718</v>
       </c>
@@ -9986,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>720</v>
       </c>
@@ -10000,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>722</v>
       </c>
@@ -10014,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>724</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>726</v>
       </c>
@@ -10042,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>728</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>730</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>732</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>734</v>
       </c>
@@ -10098,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>736</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>737</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>739</v>
       </c>
@@ -10140,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>741</v>
       </c>
@@ -10154,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>743</v>
       </c>
@@ -10168,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>745</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>747</v>
       </c>
@@ -10196,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>749</v>
       </c>
@@ -10210,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>751</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>753</v>
       </c>
@@ -10238,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>755</v>
       </c>
@@ -10252,7 +10251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>757</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>759</v>
       </c>
@@ -10280,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>761</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>763</v>
       </c>
@@ -10308,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>765</v>
       </c>
@@ -10322,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>766</v>
       </c>
@@ -10336,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>768</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>770</v>
       </c>
@@ -10364,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>772</v>
       </c>
@@ -10378,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>774</v>
       </c>
@@ -10392,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>776</v>
       </c>
@@ -10406,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>778</v>
       </c>
@@ -10420,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>780</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>782</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>784</v>
       </c>
@@ -10462,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>786</v>
       </c>
@@ -10476,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>788</v>
       </c>
@@ -10490,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>790</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>792</v>
       </c>
@@ -10518,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>793</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>795</v>
       </c>
@@ -10546,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>797</v>
       </c>
@@ -10560,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>799</v>
       </c>
@@ -10574,7 +10573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>801</v>
       </c>
@@ -10588,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>803</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>805</v>
       </c>
@@ -10616,7 +10615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>807</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>809</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>811</v>
       </c>
@@ -10658,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>813</v>
       </c>
@@ -10672,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>815</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>817</v>
       </c>
@@ -10700,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>819</v>
       </c>
@@ -10714,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>821</v>
       </c>
@@ -10728,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>823</v>
       </c>
@@ -10742,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>825</v>
       </c>
@@ -10756,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>827</v>
       </c>
@@ -10770,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>829</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>831</v>
       </c>
@@ -10798,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>833</v>
       </c>
@@ -10812,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>835</v>
       </c>
@@ -10826,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>837</v>
       </c>
@@ -10840,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>838</v>
       </c>
@@ -10854,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>840</v>
       </c>
@@ -10868,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>842</v>
       </c>
@@ -10882,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>844</v>
       </c>
@@ -10896,7 +10895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>846</v>
       </c>
@@ -10910,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>848</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>849</v>
       </c>
@@ -10938,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>851</v>
       </c>
@@ -10952,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>853</v>
       </c>
@@ -10966,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>855</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>857</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>859</v>
       </c>
@@ -11008,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>861</v>
       </c>
@@ -11022,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>863</v>
       </c>
@@ -11036,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>865</v>
       </c>
@@ -11050,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>867</v>
       </c>
@@ -11064,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>869</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>871</v>
       </c>
@@ -11092,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>873</v>
       </c>
@@ -11106,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>875</v>
       </c>
@@ -11120,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>877</v>
       </c>
@@ -11134,7 +11133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>879</v>
       </c>
@@ -11148,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>881</v>
       </c>
@@ -11162,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>883</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>885</v>
       </c>
@@ -11190,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>887</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>889</v>
       </c>
@@ -11218,7 +11217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>891</v>
       </c>
@@ -11232,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>893</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>894</v>
       </c>
@@ -11260,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>896</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>898</v>
       </c>
@@ -11288,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>900</v>
       </c>
@@ -11302,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>902</v>
       </c>
@@ -11316,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>903</v>
       </c>
@@ -11330,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>905</v>
       </c>
@@ -11344,7 +11343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>907</v>
       </c>
@@ -11358,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>909</v>
       </c>
@@ -11372,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>911</v>
       </c>
@@ -11386,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>913</v>
       </c>
@@ -11400,7 +11399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>915</v>
       </c>
@@ -11414,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>917</v>
       </c>
@@ -11428,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>919</v>
       </c>
@@ -11442,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>921</v>
       </c>
@@ -11456,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>923</v>
       </c>
@@ -11470,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>925</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>927</v>
       </c>
@@ -11498,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>929</v>
       </c>
@@ -11512,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>931</v>
       </c>
@@ -11526,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>933</v>
       </c>
@@ -11540,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>935</v>
       </c>
@@ -11554,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>937</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>939</v>
       </c>
@@ -11582,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>941</v>
       </c>
@@ -11596,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>943</v>
       </c>
@@ -11610,7 +11609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>945</v>
       </c>
@@ -11624,7 +11623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>947</v>
       </c>
@@ -11638,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>949</v>
       </c>
@@ -11652,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>951</v>
       </c>
@@ -11666,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>953</v>
       </c>
@@ -11680,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>954</v>
       </c>
@@ -11694,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>956</v>
       </c>
@@ -11708,7 +11707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>958</v>
       </c>
@@ -11722,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>959</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>961</v>
       </c>
@@ -11750,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>963</v>
       </c>
@@ -11764,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>964</v>
       </c>
@@ -11778,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>966</v>
       </c>
@@ -11792,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>968</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>970</v>
       </c>
@@ -11820,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>972</v>
       </c>
@@ -11834,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>974</v>
       </c>
@@ -11848,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>976</v>
       </c>
@@ -11862,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>978</v>
       </c>
@@ -11876,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>980</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>982</v>
       </c>
@@ -11904,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>984</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>986</v>
       </c>
@@ -11932,7 +11931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>988</v>
       </c>
@@ -11946,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>990</v>
       </c>
@@ -11960,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>992</v>
       </c>
@@ -11974,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>994</v>
       </c>
@@ -11988,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>996</v>
       </c>
@@ -12002,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>998</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1000</v>
       </c>
@@ -12030,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1002</v>
       </c>
@@ -12044,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1004</v>
       </c>
@@ -12058,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1006</v>
       </c>
@@ -12072,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1008</v>
       </c>
@@ -12086,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1010</v>
       </c>
@@ -12100,7 +12099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1012</v>
       </c>
@@ -12114,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1013</v>
       </c>
@@ -12128,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1015</v>
       </c>
@@ -12142,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1017</v>
       </c>
@@ -12156,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1019</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1021</v>
       </c>
@@ -12184,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1023</v>
       </c>
@@ -12198,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1025</v>
       </c>
@@ -12212,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1027</v>
       </c>
@@ -12226,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1029</v>
       </c>
@@ -12240,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1031</v>
       </c>
@@ -12254,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1033</v>
       </c>
@@ -12268,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1035</v>
       </c>
@@ -12282,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1037</v>
       </c>
@@ -12296,7 +12295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1039</v>
       </c>
@@ -12310,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1041</v>
       </c>
@@ -12324,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1043</v>
       </c>
@@ -12338,7 +12337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1045</v>
       </c>
@@ -12352,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1047</v>
       </c>
@@ -12366,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1049</v>
       </c>
@@ -12380,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1051</v>
       </c>
@@ -12394,7 +12393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1053</v>
       </c>
@@ -12408,7 +12407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1055</v>
       </c>
@@ -12422,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1057</v>
       </c>
@@ -12436,7 +12435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1059</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1061</v>
       </c>
@@ -12464,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1063</v>
       </c>
@@ -12478,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1064</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1066</v>
       </c>
@@ -12506,7 +12505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1068</v>
       </c>
@@ -12520,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1070</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1072</v>
       </c>
@@ -12548,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1074</v>
       </c>
@@ -12562,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1076</v>
       </c>
@@ -12576,7 +12575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1078</v>
       </c>
@@ -12590,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1080</v>
       </c>
@@ -12604,7 +12603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1082</v>
       </c>
@@ -12618,7 +12617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1084</v>
       </c>
@@ -12632,7 +12631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1085</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1087</v>
       </c>
@@ -12660,7 +12659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1089</v>
       </c>
@@ -12674,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1091</v>
       </c>
@@ -12688,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1093</v>
       </c>
@@ -12702,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1095</v>
       </c>
@@ -12716,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1097</v>
       </c>
@@ -12730,7 +12729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1099</v>
       </c>
@@ -12744,7 +12743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1101</v>
       </c>
@@ -12758,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1103</v>
       </c>
@@ -12772,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1105</v>
       </c>
@@ -12786,7 +12785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1107</v>
       </c>
@@ -12800,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1109</v>
       </c>
@@ -12814,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1111</v>
       </c>
@@ -12828,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1113</v>
       </c>
@@ -12842,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1115</v>
       </c>
@@ -12856,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1117</v>
       </c>
@@ -12870,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1119</v>
       </c>
@@ -12884,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1121</v>
       </c>
@@ -12898,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1123</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1125</v>
       </c>
@@ -12926,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1127</v>
       </c>
@@ -12940,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1129</v>
       </c>
@@ -12954,7 +12953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1131</v>
       </c>
@@ -12968,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1133</v>
       </c>
@@ -12982,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1135</v>
       </c>
@@ -12996,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1137</v>
       </c>
@@ -13010,7 +13009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1139</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1141</v>
       </c>
@@ -13038,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1143</v>
       </c>
@@ -13052,7 +13051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1145</v>
       </c>
@@ -13066,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1146</v>
       </c>
@@ -13080,7 +13079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1148</v>
       </c>
@@ -13094,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1150</v>
       </c>
@@ -13108,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1151</v>
       </c>
@@ -13122,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1153</v>
       </c>
@@ -13136,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1154</v>
       </c>
@@ -13150,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1156</v>
       </c>
@@ -13164,7 +13163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1158</v>
       </c>
@@ -13178,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1160</v>
       </c>
@@ -13192,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1162</v>
       </c>
@@ -13206,7 +13205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1164</v>
       </c>
@@ -13220,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1166</v>
       </c>
@@ -13234,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1168</v>
       </c>
@@ -13248,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1170</v>
       </c>
@@ -13262,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1172</v>
       </c>
@@ -13276,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1174</v>
       </c>
@@ -13290,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1176</v>
       </c>
@@ -13304,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1178</v>
       </c>
@@ -13318,7 +13317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1180</v>
       </c>
@@ -13332,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1181</v>
       </c>
@@ -13346,7 +13345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1183</v>
       </c>
@@ -13360,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1185</v>
       </c>
@@ -13374,7 +13373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1187</v>
       </c>
@@ -13388,7 +13387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1189</v>
       </c>
@@ -13402,7 +13401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1191</v>
       </c>
@@ -13416,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1193</v>
       </c>
@@ -13430,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1195</v>
       </c>
@@ -13444,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1197</v>
       </c>
@@ -13458,7 +13457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1199</v>
       </c>
@@ -13472,7 +13471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1201</v>
       </c>
@@ -13486,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1203</v>
       </c>
@@ -13500,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1205</v>
       </c>
@@ -13514,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1207</v>
       </c>
@@ -13528,7 +13527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1209</v>
       </c>
@@ -13542,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1211</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1213</v>
       </c>
@@ -13570,7 +13569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1215</v>
       </c>
@@ -13584,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1217</v>
       </c>
@@ -13598,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1219</v>
       </c>
@@ -13612,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1221</v>
       </c>
@@ -13626,7 +13625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1223</v>
       </c>
@@ -13640,7 +13639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1225</v>
       </c>
@@ -13654,7 +13653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1227</v>
       </c>
@@ -13668,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1229</v>
       </c>
@@ -13682,7 +13681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1231</v>
       </c>
@@ -13696,7 +13695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1233</v>
       </c>
@@ -13710,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1235</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1237</v>
       </c>
@@ -13738,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1239</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1241</v>
       </c>
@@ -13766,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1243</v>
       </c>
@@ -13780,7 +13779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1245</v>
       </c>
@@ -13794,7 +13793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1247</v>
       </c>
@@ -13808,7 +13807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1249</v>
       </c>
@@ -13822,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1251</v>
       </c>
@@ -13836,7 +13835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1253</v>
       </c>
@@ -13850,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1255</v>
       </c>
@@ -13864,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1257</v>
       </c>
@@ -13878,7 +13877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1259</v>
       </c>
@@ -13892,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1261</v>
       </c>
@@ -13906,7 +13905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1263</v>
       </c>
@@ -13920,7 +13919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1265</v>
       </c>
@@ -13934,7 +13933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1267</v>
       </c>
@@ -13948,7 +13947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1269</v>
       </c>
@@ -13962,7 +13961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1271</v>
       </c>
@@ -13976,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1273</v>
       </c>
@@ -13990,7 +13989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1275</v>
       </c>
@@ -14004,7 +14003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1277</v>
       </c>
@@ -14018,7 +14017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1279</v>
       </c>
@@ -14032,7 +14031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1281</v>
       </c>
@@ -14046,7 +14045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1283</v>
       </c>
@@ -14060,7 +14059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1285</v>
       </c>
@@ -14074,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1287</v>
       </c>
@@ -14088,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1289</v>
       </c>
@@ -14102,7 +14101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1291</v>
       </c>
@@ -14116,7 +14115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1293</v>
       </c>
@@ -14130,7 +14129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1295</v>
       </c>
@@ -14144,7 +14143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1297</v>
       </c>
@@ -14158,7 +14157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1299</v>
       </c>
@@ -14172,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1301</v>
       </c>
@@ -14186,7 +14185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1303</v>
       </c>
@@ -14200,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1305</v>
       </c>
@@ -14214,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1307</v>
       </c>
@@ -14228,7 +14227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1309</v>
       </c>
@@ -14242,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1311</v>
       </c>
@@ -14256,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1313</v>
       </c>
@@ -14270,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1315</v>
       </c>
@@ -14284,7 +14283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1317</v>
       </c>
@@ -14298,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1319</v>
       </c>
@@ -14312,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1321</v>
       </c>
@@ -14326,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1323</v>
       </c>
@@ -14340,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1325</v>
       </c>
@@ -14354,7 +14353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1327</v>
       </c>
@@ -14368,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1329</v>
       </c>
@@ -14382,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1331</v>
       </c>
@@ -14396,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1333</v>
       </c>
@@ -14410,7 +14409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1335</v>
       </c>
@@ -14424,7 +14423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1337</v>
       </c>
@@ -14438,7 +14437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1339</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1341</v>
       </c>
@@ -14466,7 +14465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1343</v>
       </c>
@@ -14480,7 +14479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1344</v>
       </c>
@@ -14494,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1346</v>
       </c>
@@ -14508,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1348</v>
       </c>
@@ -14522,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1350</v>
       </c>
@@ -14536,7 +14535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1352</v>
       </c>
@@ -14550,7 +14549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1354</v>
       </c>
@@ -14564,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1355</v>
       </c>
@@ -14578,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1357</v>
       </c>
@@ -14592,7 +14591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1359</v>
       </c>
@@ -14606,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1361</v>
       </c>
@@ -14620,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1363</v>
       </c>
@@ -14634,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1365</v>
       </c>
@@ -14648,7 +14647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1367</v>
       </c>
@@ -14662,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1369</v>
       </c>
@@ -14676,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1371</v>
       </c>
@@ -14690,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1373</v>
       </c>
@@ -14704,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1375</v>
       </c>
@@ -14718,7 +14717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1377</v>
       </c>
@@ -14732,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1379</v>
       </c>
@@ -14746,7 +14745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1381</v>
       </c>
@@ -14760,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1383</v>
       </c>
@@ -14774,7 +14773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1385</v>
       </c>
@@ -14788,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1387</v>
       </c>
@@ -14802,7 +14801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1389</v>
       </c>
@@ -14816,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1391</v>
       </c>
@@ -14830,7 +14829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1393</v>
       </c>
@@ -14844,7 +14843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1395</v>
       </c>
@@ -14858,7 +14857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1397</v>
       </c>
@@ -14872,7 +14871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1399</v>
       </c>
@@ -14886,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1401</v>
       </c>
@@ -14900,7 +14899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1403</v>
       </c>
@@ -14914,7 +14913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1405</v>
       </c>
@@ -14928,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1407</v>
       </c>
@@ -14942,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1409</v>
       </c>
@@ -14956,7 +14955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1411</v>
       </c>
@@ -14970,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1413</v>
       </c>
@@ -14984,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1415</v>
       </c>
@@ -14998,7 +14997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1416</v>
       </c>
@@ -15012,7 +15011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1418</v>
       </c>
@@ -15026,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1420</v>
       </c>
@@ -15040,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1422</v>
       </c>
@@ -15054,7 +15053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1424</v>
       </c>
@@ -15068,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1426</v>
       </c>
@@ -15082,7 +15081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1428</v>
       </c>
@@ -15096,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1430</v>
       </c>
@@ -15110,7 +15109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1432</v>
       </c>
@@ -15124,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1434</v>
       </c>
@@ -15138,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1436</v>
       </c>
@@ -15152,7 +15151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1438</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1440</v>
       </c>
@@ -15180,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1442</v>
       </c>
@@ -15194,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1444</v>
       </c>
@@ -15208,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1446</v>
       </c>
@@ -15222,7 +15221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1448</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1449</v>
       </c>
@@ -15250,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1451</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1453</v>
       </c>
@@ -15278,7 +15277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1455</v>
       </c>
@@ -15292,7 +15291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1457</v>
       </c>
@@ -15306,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1459</v>
       </c>
@@ -15320,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1460</v>
       </c>
@@ -15334,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1462</v>
       </c>
@@ -15348,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1464</v>
       </c>
@@ -15362,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1466</v>
       </c>
@@ -15376,7 +15375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1468</v>
       </c>
@@ -15390,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1470</v>
       </c>
@@ -15404,7 +15403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1472</v>
       </c>
@@ -15418,7 +15417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1474</v>
       </c>
@@ -15432,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1475</v>
       </c>
@@ -15446,7 +15445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1477</v>
       </c>
@@ -15460,7 +15459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1479</v>
       </c>
@@ -15474,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1481</v>
       </c>
@@ -15488,7 +15487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1482</v>
       </c>
@@ -15503,13 +15502,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C759" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0.5"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C759" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
